--- a/new words2.xlsx
+++ b/new words2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>underappreciated</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>попит</t>
+  </si>
+  <si>
+    <t>приваблювати</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
